--- a/Assets/StreamingAssets/Songs/清夏！乐园？大秘境！/Chart.xlsx
+++ b/Assets/StreamingAssets/Songs/清夏！乐园？大秘境！/Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Xenody-master\Assets\StreamingAssets\Songs\清夏！乐园？大秘境！\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C9413C-1490-45AB-905C-03E1170C6760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E849330-298E-4F10-962C-4C6DA73683EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="4" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{733D2C9F-C334-4499-8550-BE8F5C9E8DF7}"/>
   </bookViews>
   <sheets>
     <sheet name="speed" sheetId="7" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="53">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,14 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Lcolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ucolor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,86 +155,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#0000cd</t>
-  </si>
-  <si>
-    <t>#0000ff</t>
-  </si>
-  <si>
-    <t>#1e90ff</t>
-  </si>
-  <si>
-    <t>#00bfff</t>
-  </si>
-  <si>
-    <t>#afeeee</t>
-  </si>
-  <si>
-    <t>#ffffe0</t>
-  </si>
-  <si>
     <t>#ffec8b</t>
   </si>
   <si>
     <t>#caff70</t>
   </si>
   <si>
-    <t>#c0ff3e</t>
-  </si>
-  <si>
-    <t>#7fff00</t>
-  </si>
-  <si>
     <t>#00ff7f</t>
-  </si>
-  <si>
-    <t>#8470ff</t>
-  </si>
-  <si>
-    <t>#da70d6</t>
-  </si>
-  <si>
-    <t>#ff83fa</t>
-  </si>
-  <si>
-    <t>#ffbbff</t>
   </si>
   <si>
     <t>#ffe1ff</t>
   </si>
   <si>
-    <t>#ab82ff</t>
-  </si>
-  <si>
-    <t>#9f79ee</t>
+    <t>EndLcolor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#9b30ff</t>
+    <t>EndUcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#912cee</t>
+    <t>StartLcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ff34b3</t>
+    <t>StartUcolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ff1493</t>
+    <t>#6767ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ff6eb4</t>
+    <t>#dff7ff</t>
   </si>
   <si>
-    <t>#ee0000</t>
+    <t>#ff2dff</t>
   </si>
   <si>
-    <t>#ff4500</t>
+    <t>#b996ff</t>
   </si>
   <si>
-    <t>#ffa500</t>
+    <t>#7631ff</t>
   </si>
   <si>
-    <t>#ffd700</t>
+    <t>#ffb2e5</t>
+  </si>
+  <si>
+    <t>#b41f13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#79ff60</t>
+  </si>
+  <si>
+    <t>#e3ff60</t>
+  </si>
+  <si>
+    <t>#ca95ff</t>
+  </si>
+  <si>
+    <t>#ffe1ff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ec5b4f</t>
+  </si>
+  <si>
+    <t>#ff6cbc</t>
   </si>
 </sst>
 </file>
@@ -253,7 +233,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,6 +253,20 @@
       <sz val="11"/>
       <color rgb="FF5F5F5F"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -298,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +303,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -729,15 +729,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB3F29-4751-4825-9A13-CD8F2FFC98B2}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -745,464 +745,510 @@
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>13.45</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13.45</v>
       </c>
       <c r="B3">
-        <v>15.05</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>18.25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>18.25</v>
+      </c>
+      <c r="B4">
+        <v>21.45</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>21.45</v>
+      </c>
+      <c r="B5">
+        <v>27.45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>27.45</v>
+      </c>
+      <c r="B6">
+        <v>43.85</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>43.85</v>
+      </c>
+      <c r="B7">
+        <v>47.05</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>47.05</v>
+      </c>
+      <c r="B8">
+        <v>48.95</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>48.95</v>
+      </c>
+      <c r="B9">
+        <v>50.25</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>50.25</v>
+      </c>
+      <c r="B10">
+        <v>63.85</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>63.85</v>
+      </c>
+      <c r="B11">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>67.849999999999994</v>
+      </c>
+      <c r="B12">
+        <v>69.45</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>15.05</v>
-      </c>
-      <c r="B4">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="B5">
-        <v>18.25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>18.25</v>
-      </c>
-      <c r="B6">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>19.850000000000001</v>
-      </c>
-      <c r="B7">
-        <v>21.45</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>21.45</v>
-      </c>
-      <c r="B8">
-        <v>27.45</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>69.45</v>
+      </c>
+      <c r="B13">
+        <v>70.25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>70.25</v>
+      </c>
+      <c r="B14">
+        <v>71.05</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>71.05</v>
+      </c>
+      <c r="B15">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>71.849999999999994</v>
+      </c>
+      <c r="B16">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="B17">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>75.849999999999994</v>
+      </c>
+      <c r="B18">
+        <v>81.45</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>81.45</v>
+      </c>
+      <c r="B19">
+        <v>82.25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>82.25</v>
+      </c>
+      <c r="B20">
+        <v>94.25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>94.25</v>
+      </c>
+      <c r="B21">
+        <v>95.05</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>95.05</v>
+      </c>
+      <c r="B22">
+        <v>104.65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>104.65</v>
+      </c>
+      <c r="B23">
+        <v>106.25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>106.25</v>
+      </c>
+      <c r="B24">
+        <v>107.85</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>107.85</v>
+      </c>
+      <c r="B25">
+        <v>109.25</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>27.45</v>
-      </c>
-      <c r="B9">
-        <v>33.85</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>33.85</v>
-      </c>
-      <c r="B10">
-        <v>40.65</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>40.65</v>
-      </c>
-      <c r="B11">
-        <v>43.85</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>43.85</v>
-      </c>
-      <c r="B12">
-        <v>47.05</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>47.05</v>
-      </c>
-      <c r="B13">
-        <v>48.65</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>48.65</v>
-      </c>
-      <c r="B14">
-        <v>48.95</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>48.95</v>
-      </c>
-      <c r="B15">
-        <v>49.25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>49.25</v>
-      </c>
-      <c r="B16">
-        <v>49.45</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>49.45</v>
-      </c>
-      <c r="B17">
-        <v>63.05</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>63.05</v>
-      </c>
-      <c r="B18">
-        <v>66.25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>66.25</v>
-      </c>
-      <c r="B19">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>67.849999999999994</v>
-      </c>
-      <c r="B20">
-        <v>69.45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>69.45</v>
-      </c>
-      <c r="B21">
-        <v>70.25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>70.25</v>
-      </c>
-      <c r="B22">
-        <v>71.05</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>71.05</v>
-      </c>
-      <c r="B23">
-        <v>71.849999999999994</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>71.849999999999994</v>
-      </c>
-      <c r="B24">
-        <v>72.650000000000006</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>72.650000000000006</v>
-      </c>
-      <c r="B25">
-        <v>75.849999999999994</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>75.849999999999994</v>
+        <v>109.25</v>
       </c>
       <c r="B26">
-        <v>82.25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>82.25</v>
-      </c>
-      <c r="B27">
-        <v>94.25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>94.25</v>
-      </c>
-      <c r="B28">
-        <v>95.05</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>95.05</v>
-      </c>
-      <c r="B29">
-        <v>104.65</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>104.65</v>
-      </c>
-      <c r="B30">
-        <v>106.25</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>106.25</v>
-      </c>
-      <c r="B31">
-        <v>107.85</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>107.85</v>
-      </c>
-      <c r="B32">
-        <v>109.25</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>109.25</v>
-      </c>
-      <c r="B33">
         <v>999</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1212,7 +1258,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>999</v>
+        <v>124.65</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -7331,7 +7377,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -7398,10 +7444,10 @@
         <v>1.6</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -7434,10 +7480,10 @@
         <v>-0.8</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -7470,10 +7516,10 @@
         <v>-0.4</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -7506,10 +7552,10 @@
         <v>1.2</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -7542,10 +7588,10 @@
         <v>-1.2</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -7578,10 +7624,10 @@
         <v>0.2</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -7614,10 +7660,10 @@
         <v>2</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -7650,10 +7696,10 @@
         <v>0.6</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -7686,10 +7732,10 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -7722,10 +7768,10 @@
         <v>-0.6</v>
       </c>
       <c r="I11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -7758,10 +7804,10 @@
         <v>0.5</v>
       </c>
       <c r="I12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -7794,10 +7840,10 @@
         <v>0.5</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -7830,10 +7876,10 @@
         <v>-0.3</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -7866,10 +7912,10 @@
         <v>-1</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -7902,10 +7948,10 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -7938,10 +7984,10 @@
         <v>0.5</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -7974,10 +8020,10 @@
         <v>-1.2</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -8010,10 +8056,10 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -8046,10 +8092,10 @@
         <v>-1</v>
       </c>
       <c r="I20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -8082,10 +8128,10 @@
         <v>-1</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -8118,10 +8164,10 @@
         <v>2</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -8154,10 +8200,10 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -8190,10 +8236,10 @@
         <v>0.6</v>
       </c>
       <c r="I24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -8226,10 +8272,10 @@
         <v>-1</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -8262,10 +8308,10 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -8298,10 +8344,10 @@
         <v>0.4</v>
       </c>
       <c r="I27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -8334,10 +8380,10 @@
         <v>0.7</v>
       </c>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -8370,10 +8416,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -8406,10 +8452,10 @@
         <v>1.3</v>
       </c>
       <c r="I30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J30" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -8442,10 +8488,10 @@
         <v>-1</v>
       </c>
       <c r="I31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -8478,10 +8524,10 @@
         <v>0.4</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -8514,10 +8560,10 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -8550,10 +8596,10 @@
         <v>-1.2</v>
       </c>
       <c r="I34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -8586,10 +8632,10 @@
         <v>0.4</v>
       </c>
       <c r="I35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -8622,10 +8668,10 @@
         <v>-1</v>
       </c>
       <c r="I36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -8657,10 +8703,10 @@
         <v>0.5</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -8692,10 +8738,10 @@
         <v>1.6</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -8727,10 +8773,10 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -8762,10 +8808,10 @@
         <v>0.5</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J40" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -8797,10 +8843,10 @@
         <v>0.5</v>
       </c>
       <c r="I41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -8832,10 +8878,10 @@
         <v>1.3</v>
       </c>
       <c r="I42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -8867,10 +8913,10 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -8902,10 +8948,10 @@
         <v>-0.2</v>
       </c>
       <c r="I44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -8937,10 +8983,10 @@
         <v>0.5</v>
       </c>
       <c r="I45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -8972,10 +9018,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -9007,10 +9053,10 @@
         <v>-0.2</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -9042,10 +9088,10 @@
         <v>0.4</v>
       </c>
       <c r="I48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -9077,10 +9123,10 @@
         <v>0.4</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -9112,10 +9158,10 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -9147,10 +9193,10 @@
         <v>-1</v>
       </c>
       <c r="I51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -9182,10 +9228,10 @@
         <v>-1</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -9217,10 +9263,10 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -9252,10 +9298,10 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -9287,10 +9333,10 @@
         <v>-0.8</v>
       </c>
       <c r="I55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -9322,10 +9368,10 @@
         <v>-0.8</v>
       </c>
       <c r="I56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -9357,10 +9403,10 @@
         <v>2</v>
       </c>
       <c r="I57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J57" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -9392,10 +9438,10 @@
         <v>-0.2</v>
       </c>
       <c r="I58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -9427,10 +9473,10 @@
         <v>1.6</v>
       </c>
       <c r="I59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -9462,10 +9508,10 @@
         <v>-0.8</v>
       </c>
       <c r="I60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -9497,10 +9543,10 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -12494,13 +12540,13 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -12532,7 +12578,7 @@
         <v>0.8</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -12564,7 +12610,7 @@
         <v>0.9</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -12596,7 +12642,7 @@
         <v>0.8</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -12628,7 +12674,7 @@
         <v>0.9</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -12660,7 +12706,7 @@
         <v>0.8</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -12692,7 +12738,7 @@
         <v>0.9</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -12724,7 +12770,7 @@
         <v>0.8</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -12756,7 +12802,7 @@
         <v>0.9</v>
       </c>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -12788,7 +12834,7 @@
         <v>0.8</v>
       </c>
       <c r="J10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -12820,7 +12866,7 @@
         <v>0.8</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -12852,7 +12898,7 @@
         <v>0.8</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -12884,7 +12930,7 @@
         <v>0.8</v>
       </c>
       <c r="J13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
